--- a/RPS Instalasi Jaringan dan Komputer.xlsx
+++ b/RPS Instalasi Jaringan dan Komputer.xlsx
@@ -629,6 +629,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -652,30 +676,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,7 +712,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1039,95 +1039,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="15.75">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1">
       <c r="D8" s="1" t="s">
@@ -1200,26 +1200,26 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
@@ -1241,27 +1241,27 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="5"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="1" t="s">
@@ -1278,27 +1278,27 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="1" t="s">
@@ -1315,22 +1315,22 @@
     </row>
     <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="5"/>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="30" spans="1:9" ht="30">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="26"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="6" t="s">
         <v>21</v>
       </c>
@@ -1354,10 +1354,10 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="135">
-      <c r="A32" s="23">
+      <c r="A32" s="31">
         <v>1</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="9" t="s">
         <v>55</v>
       </c>
@@ -1408,10 +1408,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="90">
-      <c r="A33" s="23">
+      <c r="A33" s="31">
         <v>2</v>
       </c>
-      <c r="B33" s="23"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="9" t="s">
         <v>58</v>
       </c>
@@ -1435,10 +1435,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="165">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="9" t="s">
         <v>63</v>
       </c>
@@ -1462,10 +1462,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="105">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="29"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="9" t="s">
         <v>68</v>
       </c>
@@ -1489,10 +1489,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="12" customFormat="1" ht="60">
-      <c r="A36" s="23">
+      <c r="A36" s="31">
         <v>7</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
@@ -1510,10 +1510,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A37" s="23">
+      <c r="A37" s="31">
         <v>8</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="19" t="s">
         <v>76</v>
       </c>
@@ -1537,10 +1537,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="125.25" customHeight="1">
-      <c r="A38" s="23">
+      <c r="A38" s="31">
         <v>9</v>
       </c>
-      <c r="B38" s="23"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="9" t="s">
         <v>79</v>
       </c>
@@ -1564,10 +1564,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="135">
-      <c r="A39" s="23">
+      <c r="A39" s="31">
         <v>10</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="9" t="s">
         <v>86</v>
       </c>
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="88.5" customHeight="1">
-      <c r="A40" s="23">
+      <c r="A40" s="31">
         <v>11</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="9" t="s">
         <v>89</v>
       </c>
@@ -1618,10 +1618,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="90">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="9" t="s">
         <v>93</v>
       </c>
@@ -1645,10 +1645,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="150">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="20" t="s">
         <v>98</v>
       </c>
@@ -1672,10 +1672,10 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="23">
+      <c r="A43" s="31">
         <v>16</v>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
@@ -1691,8 +1691,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -1894,17 +1894,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B17:I18"/>
-    <mergeCell ref="B22:I23"/>
-    <mergeCell ref="B25:I26"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
@@ -1920,6 +1909,17 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B17:I18"/>
+    <mergeCell ref="B22:I23"/>
+    <mergeCell ref="B25:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RPS Instalasi Jaringan dan Komputer.xlsx
+++ b/RPS Instalasi Jaringan dan Komputer.xlsx
@@ -629,6 +629,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -652,30 +676,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,13 +691,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>151163</xdr:colOff>
+      <xdr:colOff>170213</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>125795</xdr:rowOff>
     </xdr:to>
@@ -712,7 +712,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -722,7 +722,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="294038" y="0"/>
+          <a:off x="313088" y="0"/>
           <a:ext cx="1525237" cy="1364045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1039,95 +1039,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="15.75">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="18.75">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:12" ht="19.350000000000001" customHeight="1" thickBot="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16.5" thickTop="1">
       <c r="D8" s="1" t="s">
@@ -1200,26 +1200,26 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
@@ -1241,27 +1241,27 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="5"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="1" t="s">
@@ -1278,27 +1278,27 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="1" t="s">
@@ -1315,22 +1315,22 @@
     </row>
     <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="5"/>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="30" spans="1:9" ht="30">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="6" t="s">
         <v>21</v>
       </c>
@@ -1354,10 +1354,10 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="7" t="s">
         <v>29</v>
       </c>
@@ -1381,10 +1381,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="135">
-      <c r="A32" s="31">
+      <c r="A32" s="23">
         <v>1</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="9" t="s">
         <v>55</v>
       </c>
@@ -1408,10 +1408,10 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="90">
-      <c r="A33" s="31">
+      <c r="A33" s="23">
         <v>2</v>
       </c>
-      <c r="B33" s="31"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="9" t="s">
         <v>58</v>
       </c>
@@ -1435,10 +1435,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="165">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="31"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="9" t="s">
         <v>63</v>
       </c>
@@ -1462,10 +1462,10 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="105">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="37"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="9" t="s">
         <v>68</v>
       </c>
@@ -1489,10 +1489,10 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="12" customFormat="1" ht="60">
-      <c r="A36" s="31">
+      <c r="A36" s="23">
         <v>7</v>
       </c>
-      <c r="B36" s="31"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
@@ -1510,10 +1510,10 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="94.5" customHeight="1">
-      <c r="A37" s="31">
+      <c r="A37" s="23">
         <v>8</v>
       </c>
-      <c r="B37" s="31"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="19" t="s">
         <v>76</v>
       </c>
@@ -1537,10 +1537,10 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="125.25" customHeight="1">
-      <c r="A38" s="31">
+      <c r="A38" s="23">
         <v>9</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="9" t="s">
         <v>79</v>
       </c>
@@ -1564,10 +1564,10 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="135">
-      <c r="A39" s="31">
+      <c r="A39" s="23">
         <v>10</v>
       </c>
-      <c r="B39" s="31"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="9" t="s">
         <v>86</v>
       </c>
@@ -1591,10 +1591,10 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="88.5" customHeight="1">
-      <c r="A40" s="31">
+      <c r="A40" s="23">
         <v>11</v>
       </c>
-      <c r="B40" s="31"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="9" t="s">
         <v>89</v>
       </c>
@@ -1618,10 +1618,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="90">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="9" t="s">
         <v>93</v>
       </c>
@@ -1645,10 +1645,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="150">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="20" t="s">
         <v>98</v>
       </c>
@@ -1672,10 +1672,10 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="31">
+      <c r="A43" s="23">
         <v>16</v>
       </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
@@ -1691,8 +1691,8 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
@@ -1894,6 +1894,17 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="B17:I18"/>
+    <mergeCell ref="B22:I23"/>
+    <mergeCell ref="B25:I26"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
@@ -1909,17 +1920,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="B17:I18"/>
-    <mergeCell ref="B22:I23"/>
-    <mergeCell ref="B25:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
